--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_0～100人毎時.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_0～100人毎時.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -679,7 +679,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -696,14 +696,16 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -807,7 +809,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CBE-45EC-ABD6-A8A0B5AD9EF8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -957,7 +964,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -995,8 +1002,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>NPD</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
-                  <a:t>第三者プライバシデータ流出比</a:t>
+                  <a:t>流出比</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1974,7 +1985,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
